--- a/doc/alice/需求文档/2018年8月31日.xlsx
+++ b/doc/alice/需求文档/2018年8月31日.xlsx
@@ -11,13 +11,17 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +34,15 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -56,9 +69,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -354,12 +373,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G3"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
